--- a/medicine/Enfance/Rita_et_Machin_(bande_dessinée)/Rita_et_Machin_(bande_dessinée).xlsx
+++ b/medicine/Enfance/Rita_et_Machin_(bande_dessinée)/Rita_et_Machin_(bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rita_et_Machin_(bande_dessin%C3%A9e)</t>
+          <t>Rita_et_Machin_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rita et Machin est une série de bandes dessinées pour la jeunesse de Jean-Philippe Arrou-Vignod et illustrée par Olivier Tallec, publiée aux éditions Gallimard Jeunesse. Le premier opus est publié en 2006.
-Cette bande dessinée met en scène Rita, une petite fille âgée de 5 ans qui reçoit pour son anniversaire Machin, un chien un peu pataud[1].
-La série a été traduite dans plus de 14 langues[2].
-Elle est adaptée en une série télévisée franco- japonaise d'animation Rita et Machin, diffusée en France sur France 5 en 2012[3]. Puis, au cinéma, en février 2019, sort Les Aventures de Rita et Machin, une série d'animation de 10 courts métrages[2], réalisée par Pon Kozutsumi et Jun Takagi.
+Cette bande dessinée met en scène Rita, une petite fille âgée de 5 ans qui reçoit pour son anniversaire Machin, un chien un peu pataud.
+La série a été traduite dans plus de 14 langues.
+Elle est adaptée en une série télévisée franco- japonaise d'animation Rita et Machin, diffusée en France sur France 5 en 2012. Puis, au cinéma, en février 2019, sort Les Aventures de Rita et Machin, une série d'animation de 10 courts métrages, réalisée par Pon Kozutsumi et Jun Takagi.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rita_et_Machin_(bande_dessin%C3%A9e)</t>
+          <t>Rita_et_Machin_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Liste des albums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rita et Machin[1], 2006
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rita et Machin, 2006
 Rita et Machin à l'école, 2006
 Le dimanche de Rita et Machin, 2006
 Rita et Machin à la plage, 2006
